--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Structure code.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Structure code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\(OPR)Import System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED53A45F-CA6E-482F-AA67-905BA6DBC87E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E82016C-C34E-47A1-B7D0-3851E1EFB300}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{BFE2D8A9-1185-46A0-A6B9-98861F6E944D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>เลขที่  (null)</t>
   </si>
@@ -58,7 +58,10 @@
     <t>รหัส codestructure</t>
   </si>
   <si>
-    <t>1CHA</t>
+    <t>4EMT</t>
+  </si>
+  <si>
+    <t>MAUT</t>
   </si>
 </sst>
 </file>
@@ -472,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8697F220-D1B2-4FE1-8291-B0FA43236966}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,17 +504,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -520,10 +512,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A37FB35-BAF2-417B-AAD1-55329144F470}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,7 +566,18 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Structure code.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Structure code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E82016C-C34E-47A1-B7D0-3851E1EFB300}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C64242-B28F-477F-BC35-CCDF9EF82CFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{BFE2D8A9-1185-46A0-A6B9-98861F6E944D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{BFE2D8A9-1185-46A0-A6B9-98861F6E944D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
-  <si>
-    <t>เลขที่  (null)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>polcode_id</t>
   </si>
@@ -58,17 +55,65 @@
     <t>รหัส codestructure</t>
   </si>
   <si>
+    <t>MAUT</t>
+  </si>
+  <si>
+    <t>1CHA</t>
+  </si>
+  <si>
+    <t>2COM</t>
+  </si>
+  <si>
+    <t>3BRA</t>
+  </si>
+  <si>
     <t>4EMT</t>
   </si>
   <si>
-    <t>MAUT</t>
+    <t>M/D</t>
+  </si>
+  <si>
+    <t>5YEA</t>
+  </si>
+  <si>
+    <t>6MON</t>
+  </si>
+  <si>
+    <t>1CHA = อักขระคงที่ ( เพิ่มข้อมูล ความยาว ,ข้อความคงที่ ,อันดับ)</t>
+  </si>
+  <si>
+    <t>2COM = รหับริษัท (เพิ่มข้อมูล อันดับ)</t>
+  </si>
+  <si>
+    <t>4EMT = ประเภทพนักงาน  (เพิ่มข้อมูล อันดับ)</t>
+  </si>
+  <si>
+    <t>5YEA = รูปแบบปี  (เพิ่มข้อมูล อันดับ)</t>
+  </si>
+  <si>
+    <t>6MON = รูปแบบเดือน (เพิ่มข้อมูล อันดับ)</t>
+  </si>
+  <si>
+    <t>MAUT = รหัสอัตโนมัติ (บังคับ)  ( เพิ่มข้อมูล ความยาว ,ข้อความคงที่ ,อันดับ)</t>
+  </si>
+  <si>
+    <t>3BRA = รหัสสาขา (เพิ่มข้อมูล อันดับ)</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +128,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +160,22 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -128,15 +203,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -154,8 +228,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8697F220-D1B2-4FE1-8291-B0FA43236966}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,21 +580,21 @@
     <col min="7" max="7" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -512,75 +605,183 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A37FB35-BAF2-417B-AAD1-55329144F470}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="28.08984375" customWidth="1"/>
+    <col min="1" max="1" width="28.08984375" customWidth="1"/>
+    <col min="2" max="2" width="44.26953125" customWidth="1"/>
+    <col min="3" max="4" width="28.08984375" customWidth="1"/>
     <col min="5" max="5" width="26.54296875" customWidth="1"/>
+    <col min="7" max="7" width="63.7265625" customWidth="1"/>
+    <col min="8" max="9" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
+      <c r="G9" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B9" xr:uid="{428A63D3-3CC8-4A25-B1D1-841EE223CAF8}">
+      <formula1>"1CHA,2COM,3BRA,4EMT,5YEA,6MON,MAUT"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Structure code.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Structure code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C64242-B28F-477F-BC35-CCDF9EF82CFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6903DB4-48DB-4A73-B9DA-7691744E7623}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{BFE2D8A9-1185-46A0-A6B9-98861F6E944D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{BFE2D8A9-1185-46A0-A6B9-98861F6E944D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>polcode_id</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>รหัสบริษัท</t>
+  </si>
+  <si>
+    <t>company_code</t>
   </si>
 </sst>
 </file>
@@ -208,7 +214,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -233,16 +239,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,32 +577,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8697F220-D1B2-4FE1-8291-B0FA43236966}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="18.36328125" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="7" width="18.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -605,180 +618,187 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A37FB35-BAF2-417B-AAD1-55329144F470}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.08984375" customWidth="1"/>
-    <col min="2" max="2" width="44.26953125" customWidth="1"/>
-    <col min="3" max="4" width="28.08984375" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" customWidth="1"/>
-    <col min="7" max="7" width="63.7265625" customWidth="1"/>
-    <col min="8" max="9" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" customWidth="1"/>
+    <col min="3" max="3" width="44.26953125" customWidth="1"/>
+    <col min="4" max="5" width="28.08984375" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" customWidth="1"/>
+    <col min="8" max="8" width="63.7265625" customWidth="1"/>
+    <col min="9" max="10" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
         <v>3</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7">
         <v>4</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
         <v>5</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
         <v>6</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
         <v>7</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B9" xr:uid="{428A63D3-3CC8-4A25-B1D1-841EE223CAF8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C9" xr:uid="{428A63D3-3CC8-4A25-B1D1-841EE223CAF8}">
       <formula1>"1CHA,2COM,3BRA,4EMT,5YEA,6MON,MAUT"</formula1>
     </dataValidation>
   </dataValidations>
